--- a/直流双臂电桥.xlsx
+++ b/直流双臂电桥.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185D0D77-0A21-44A3-8338-2B6B2724FC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF0690-72D7-48D4-BD49-CC138FC5F191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ΔI/nA</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -140,18 +140,6 @@
   </si>
   <si>
     <t>双臂电桥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -682,7 +670,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,10 +688,13 @@
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -716,238 +707,218 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>1E-3</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>1000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>1E-3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>661</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B15" s="10">
         <v>1</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="10">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>4</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B16" s="12">
         <v>5.41</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C16" s="12">
         <v>5.4</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <v>5.41</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>5.4</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>5.4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
         <v>0.68300000000000005</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>5</v>
       </c>
-      <c r="C18" s="19">
-        <f>IF(B18&lt;6,ROUND(TINV(1-A18,B18-1),2),1)</f>
+      <c r="C19" s="19">
+        <f>IF(B19&lt;6,ROUND(TINV(1-A19,B19-1),2),1)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="D18" s="19">
-        <f>AVERAGE(B15:F15)</f>
+      <c r="D19" s="19">
+        <f>AVERAGE(B16:F16)</f>
         <v>5.403999999999999</v>
       </c>
-      <c r="E18" s="19">
-        <f>_xlfn.STDEV.S(B15:F15)</f>
+      <c r="E19" s="19">
+        <f>_xlfn.STDEV.S(B16:F16)</f>
         <v>5.4772255750515442E-3</v>
       </c>
-      <c r="F18" s="19">
-        <f>C18/SQRT(B18)*E18</f>
+      <c r="F19" s="19">
+        <f>C19/SQRT(B19)*E19</f>
         <v>2.7924183067727626E-3</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G19" s="20">
         <f>0.01/SQRT(3)</f>
         <v>5.773502691896258E-3</v>
       </c>
-      <c r="H18" s="19">
-        <f>SQRT(F18^2+G18^2)</f>
+      <c r="H19" s="19">
+        <f>SQRT(F19^2+G19^2)</f>
         <v>6.4133402633364932E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>1185.0999999999999</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B22" s="16">
         <v>5</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C22" s="16">
         <v>105.6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <f>(C21)/(B21/A21)</f>
+    <row r="25" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <f>(C22)/(B22/A22)</f>
         <v>25029.311999999998</v>
       </c>
-      <c r="B24" s="21">
-        <f>SQRT(((1+D8)^2)*(C8^2+C8^2)+(D8^2)*(C8^2+C8^2)+C8^2+(0.1/A24)^2)</f>
+      <c r="B25" s="21">
+        <f>SQRT(((1+D9)^2)*(C9^2+C9^2)+(D9^2)*(C9^2+C9^2)+C9^2+(0.1/A25)^2)</f>
         <v>1.8547280023082963E-3</v>
       </c>
-      <c r="C24" s="21">
-        <f>A21*A8/B8</f>
+      <c r="C25" s="21">
+        <f>A22*A9/B9</f>
         <v>1.1851000000000001E-3</v>
       </c>
-      <c r="D24" s="21">
-        <f>B24*C24</f>
+      <c r="D25" s="21">
+        <f>B25*C25</f>
         <v>2.198038155535562E-6</v>
       </c>
-      <c r="E24" s="21">
-        <f>C24*PI()*D18^2*10^(-6)/(4*B12*10^(-3))</f>
+      <c r="E25" s="21">
+        <f>C25*PI()*D19^2*10^(-6)/(4*B13*10^(-3))</f>
         <v>4.1121987876073295E-8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
